--- a/csv/sources/written_by.xlsx
+++ b/csv/sources/written_by.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Casa\Desktop\hyp-project\csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Casa\Desktop\hyp-project\csv\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599C4859-3F21-43DB-AA4E-A88F5D8F0DD9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB345AE2-059A-4859-95FA-25924CC6F66D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2B32907A-DF78-4AD1-B9A7-18B9DDB5A22D}"/>
+    <workbookView xWindow="9990" yWindow="1780" windowWidth="8100" windowHeight="7360" xr2:uid="{2B32907A-DF78-4AD1-B9A7-18B9DDB5A22D}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio4" sheetId="4" r:id="rId1"/>
@@ -54,7 +54,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +69,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -85,7 +91,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -119,15 +125,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -442,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795D7643-AA31-422C-9450-525E254F6C17}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -463,8 +488,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>10000000</v>
+      <c r="A2">
+        <v>10000029</v>
       </c>
       <c r="B2" s="1">
         <v>8893517140</v>
@@ -475,40 +500,40 @@
         <v>10000000</v>
       </c>
       <c r="B3" s="1">
+        <v>8893517140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>10000029</v>
+      </c>
+      <c r="B4" s="1">
         <v>8893517141</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>10000001</v>
-      </c>
-      <c r="B4" s="1">
-        <v>8893517142</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
-        <v>10000001</v>
+        <v>10000000</v>
       </c>
       <c r="B5" s="1">
-        <v>8893517143</v>
-      </c>
+        <v>8893517141</v>
+      </c>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
-        <v>10000002</v>
+        <v>10000001</v>
       </c>
       <c r="B6" s="1">
-        <v>8893517144</v>
+        <v>8893517142</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
-        <v>10000002</v>
+        <v>10000001</v>
       </c>
       <c r="B7" s="1">
-        <v>8893517145</v>
+        <v>8893517143</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -516,7 +541,7 @@
         <v>10000002</v>
       </c>
       <c r="B8" s="1">
-        <v>8893517146</v>
+        <v>8893517144</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -524,79 +549,79 @@
         <v>10000002</v>
       </c>
       <c r="B9" s="1">
-        <v>8893517147</v>
+        <v>8893517145</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
-        <v>10000003</v>
+        <v>10000002</v>
       </c>
       <c r="B10" s="1">
-        <v>8893517148</v>
+        <v>8893517146</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
-        <v>10000003</v>
+        <v>10000002</v>
       </c>
       <c r="B11" s="1">
-        <v>8893517149</v>
+        <v>8893517147</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
-        <v>10000004</v>
+        <v>10000003</v>
       </c>
       <c r="B12" s="1">
-        <v>8893517150</v>
+        <v>8893517148</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
-        <v>10000005</v>
+        <v>10000003</v>
       </c>
       <c r="B13" s="1">
-        <v>8893517151</v>
+        <v>8893517149</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
-        <v>10000005</v>
+        <v>10000004</v>
       </c>
       <c r="B14" s="1">
-        <v>8893517152</v>
+        <v>8893517150</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
-        <v>10000006</v>
+        <v>10000005</v>
       </c>
       <c r="B15" s="1">
-        <v>8893517153</v>
+        <v>8893517151</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
-        <v>10000006</v>
+        <v>10000005</v>
       </c>
       <c r="B16" s="1">
-        <v>8893517154</v>
+        <v>8893517152</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
-        <v>10000007</v>
+        <v>10000006</v>
       </c>
       <c r="B17" s="1">
-        <v>8893517156</v>
+        <v>8893517153</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
-        <v>10000007</v>
+        <v>10000006</v>
       </c>
       <c r="B18" s="1">
-        <v>8893517158</v>
+        <v>8893517154</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -604,7 +629,7 @@
         <v>10000007</v>
       </c>
       <c r="B19" s="1">
-        <v>8893517159</v>
+        <v>8893517156</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -612,111 +637,111 @@
         <v>10000007</v>
       </c>
       <c r="B20" s="1">
-        <v>8893517160</v>
+        <v>8893517158</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
-        <v>10000008</v>
+        <v>10000007</v>
       </c>
       <c r="B21" s="1">
-        <v>8893517162</v>
+        <v>8893517159</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
-        <v>10000008</v>
+      <c r="A22">
+        <v>10000030</v>
       </c>
       <c r="B22" s="1">
-        <v>8893517163</v>
+        <v>8893517160</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
-        <v>10000008</v>
+        <v>10000007</v>
       </c>
       <c r="B23" s="1">
-        <v>8893517164</v>
+        <v>8893517160</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
-        <v>10000009</v>
+        <v>10000008</v>
       </c>
       <c r="B24" s="1">
-        <v>8893517165</v>
+        <v>8893517162</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
-        <v>10000009</v>
+        <v>10000008</v>
       </c>
       <c r="B25" s="1">
-        <v>8893517166</v>
+        <v>8893517163</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
-        <v>10000009</v>
+        <v>10000008</v>
       </c>
       <c r="B26" s="1">
-        <v>8893517167</v>
+        <v>8893517164</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
-        <v>10000010</v>
+        <v>10000009</v>
       </c>
       <c r="B27" s="1">
-        <v>8893517168</v>
+        <v>8893517165</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
-        <v>10000010</v>
+        <v>10000009</v>
       </c>
       <c r="B28" s="1">
-        <v>8893517169</v>
+        <v>8893517166</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
-        <v>10000010</v>
+        <v>10000009</v>
       </c>
       <c r="B29" s="1">
-        <v>8893517170</v>
+        <v>8893517167</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
-        <v>10000011</v>
+        <v>10000010</v>
       </c>
       <c r="B30" s="1">
-        <v>8893517171</v>
+        <v>8893517168</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
-        <v>10000012</v>
+        <v>10000010</v>
       </c>
       <c r="B31" s="1">
-        <v>8893517172</v>
+        <v>8893517169</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
-        <v>10000012</v>
+        <v>10000010</v>
       </c>
       <c r="B32" s="1">
-        <v>8893517173</v>
+        <v>8893517170</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
-        <v>10000012</v>
+        <v>10000011</v>
       </c>
       <c r="B33" s="1">
-        <v>8893517174</v>
+        <v>8893517171</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -724,127 +749,223 @@
         <v>10000012</v>
       </c>
       <c r="B34" s="1">
-        <v>8893517175</v>
+        <v>8893517172</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
-        <v>10000013</v>
+        <v>10000012</v>
       </c>
       <c r="B35" s="1">
-        <v>8893517176</v>
+        <v>8893517173</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
-        <v>10000013</v>
+        <v>10000012</v>
       </c>
       <c r="B36" s="1">
-        <v>8893517177</v>
+        <v>8893517174</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
-        <v>10000013</v>
+        <v>10000012</v>
       </c>
       <c r="B37" s="1">
-        <v>8893517178</v>
+        <v>8893517175</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
-        <v>10000014</v>
+        <v>10000013</v>
       </c>
       <c r="B38" s="1">
-        <v>8893517179</v>
+        <v>8893517176</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
-        <v>10000014</v>
+        <v>10000013</v>
       </c>
       <c r="B39" s="1">
-        <v>8893517180</v>
+        <v>8893517177</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
-        <v>10000015</v>
+        <v>10000013</v>
       </c>
       <c r="B40" s="1">
-        <v>8893517181</v>
+        <v>8893517178</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
-        <v>10000016</v>
+        <v>10000014</v>
       </c>
       <c r="B41" s="1">
-        <v>8893517182</v>
+        <v>8893517179</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
-        <v>10000016</v>
+        <v>10000014</v>
       </c>
       <c r="B42" s="1">
-        <v>8893517183</v>
+        <v>8893517180</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
-        <v>10000016</v>
+        <v>10000015</v>
       </c>
       <c r="B43" s="1">
-        <v>8893517184</v>
+        <v>8893517181</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
-        <v>10000017</v>
+        <v>10000016</v>
       </c>
       <c r="B44" s="1">
-        <v>8893517185</v>
+        <v>8893517182</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
-        <v>10000017</v>
+        <v>10000016</v>
       </c>
       <c r="B45" s="1">
-        <v>8893517186</v>
+        <v>8893517183</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
-        <v>10000018</v>
+        <v>10000016</v>
       </c>
       <c r="B46" s="1">
-        <v>8893517187</v>
+        <v>8893517184</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
-        <v>10000019</v>
+        <v>10000017</v>
       </c>
       <c r="B47" s="1">
-        <v>8893517188</v>
+        <v>8893517185</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
-        <v>10000019</v>
+        <v>10000017</v>
       </c>
       <c r="B48" s="1">
-        <v>8893517189</v>
+        <v>8893517186</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
+        <v>10000018</v>
+      </c>
+      <c r="B49" s="1">
+        <v>8893517187</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="2">
         <v>10000019</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B50" s="1">
+        <v>8893517188</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="2">
+        <v>10000019</v>
+      </c>
+      <c r="B51" s="1">
+        <v>8893517189</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="2">
+        <v>10000019</v>
+      </c>
+      <c r="B52" s="1">
         <v>8893517190</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>10000020</v>
+      </c>
+      <c r="B53" s="4">
+        <v>8893517191</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>10000021</v>
+      </c>
+      <c r="B54" s="4">
+        <v>8893517191</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>10000022</v>
+      </c>
+      <c r="B55" s="4">
+        <v>8893517191</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>10000023</v>
+      </c>
+      <c r="B56" s="5">
+        <v>8893517192</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>10000024</v>
+      </c>
+      <c r="B57" s="5">
+        <v>8893517192</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>10000025</v>
+      </c>
+      <c r="B58" s="5">
+        <v>8893517193</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>10000026</v>
+      </c>
+      <c r="B59" s="5">
+        <v>8893517193</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>10000027</v>
+      </c>
+      <c r="B60" s="5">
+        <v>8893517193</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>10000028</v>
+      </c>
+      <c r="B61" s="5">
+        <v>8893517193</v>
       </c>
     </row>
   </sheetData>
